--- a/data/eDNAconc_salmonids_GrenseJRiver_finalw_PinkSalcounts.xlsx
+++ b/data/eDNAconc_salmonids_GrenseJRiver_finalw_PinkSalcounts.xlsx
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="K52">
-        <v>5.476558182794211e-07</v>
+        <v>5.476557692307693e-07</v>
       </c>
     </row>
     <row r="53">
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="K58">
-        <v>2.594536974238e-07</v>
+        <v>1.612823874362134e-07</v>
       </c>
     </row>
     <row r="59">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="K59">
-        <v>1.612823874362134e-07</v>
+        <v>2.59454e-07</v>
       </c>
     </row>
     <row r="60">
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="K60">
-        <v>6.12531136842352e-08</v>
+        <v>6.119999999999999e-08</v>
       </c>
     </row>
     <row r="61">
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="K61">
-        <v>2.220278901254375e-07</v>
+        <v>2.220270833333333e-07</v>
       </c>
     </row>
     <row r="62">
@@ -3201,7 +3201,7 @@
         </is>
       </c>
       <c r="K63">
-        <v>8.238057281925793e-08</v>
+        <v>8.229166666666666e-08</v>
       </c>
     </row>
     <row r="64">
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="K67">
-        <v>8.682552850847071e-07</v>
+        <v>8.682547619047619e-07</v>
       </c>
     </row>
     <row r="68">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="K69">
-        <v>3.225297124673548e-07</v>
+        <v>3.225285714285715e-07</v>
       </c>
     </row>
     <row r="70">
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="K71">
-        <v>1.305863292122223e-07</v>
+        <v>1.305e-07</v>
       </c>
     </row>
     <row r="72">
@@ -3606,7 +3606,7 @@
         </is>
       </c>
       <c r="K72">
-        <v>7.462165577721075e-08</v>
+        <v>7.45e-08</v>
       </c>
     </row>
     <row r="73">
@@ -3831,7 +3831,7 @@
         </is>
       </c>
       <c r="K77">
-        <v>1.799830504902935e-07</v>
+        <v>1.8e-07</v>
       </c>
     </row>
     <row r="78">
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="K81">
-        <v>6.843748834197423e-06</v>
+        <v>6.843749999999999e-06</v>
       </c>
     </row>
     <row r="82">
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="K83">
-        <v>7.660548659156845e-06</v>
+        <v>7.660549999999999e-06</v>
       </c>
     </row>
     <row r="84">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="K84">
-        <v>2.412987178991615e-06</v>
+        <v>2.412985714285714e-06</v>
       </c>
     </row>
     <row r="85">
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="K86">
-        <v>8.643196480961785e-07</v>
+        <v>8.643214285714286e-07</v>
       </c>
     </row>
     <row r="87">
@@ -4416,7 +4416,7 @@
         </is>
       </c>
       <c r="K90">
-        <v>3.36461250328755e-07</v>
+        <v>3.364625e-07</v>
       </c>
     </row>
     <row r="91">
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="K91">
-        <v>3.53349336384295e-07</v>
+        <v>3.5335e-07</v>
       </c>
     </row>
     <row r="92">
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="K93">
-        <v>2.337253567737542e-07</v>
+        <v>2.3375e-07</v>
       </c>
     </row>
     <row r="94">
